--- a/descripcion_datos.xlsx
+++ b/descripcion_datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aeroengy\Desktop\kaggle-HouseRate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5F0C3D-D40B-4DEC-A6C4-3C3124B1277D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76C5589-9BCA-4FC0-B720-34CAAADEA39D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="645" windowWidth="19440" windowHeight="15000" xr2:uid="{4D318646-3679-4086-8D88-EA1F654DF70C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D318646-3679-4086-8D88-EA1F654DF70C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="173">
   <si>
     <t>Nombre Columna</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Tipo de Variable</t>
   </si>
   <si>
-    <t>Influencia en el precio</t>
-  </si>
-  <si>
     <t>Conclusion</t>
   </si>
   <si>
@@ -522,9 +519,6 @@
     <t>Otras caracteristicas</t>
   </si>
   <si>
-    <t>Valos de las otras caracteristicas</t>
-  </si>
-  <si>
     <t>Mes de venta</t>
   </si>
   <si>
@@ -538,6 +532,26 @@
   </si>
   <si>
     <t>Venta</t>
+  </si>
+  <si>
+    <t>Influencia en el precio
+0-5</t>
+  </si>
+  <si>
+    <t>Valor de las otras caracteristicas</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Continua /
+Discreta</t>
+  </si>
+  <si>
+    <t>Discreta</t>
+  </si>
+  <si>
+    <t>Continua</t>
   </si>
 </sst>
 </file>
@@ -588,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -619,14 +633,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -652,6 +676,49 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -709,34 +776,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -767,15 +806,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40414DC1-3685-452D-8309-840D9D183F55}" name="Tabla1" displayName="Tabla1" ref="A1:F81" totalsRowShown="0" headerRowDxfId="7" dataDxfId="4">
-  <autoFilter ref="A1:F81" xr:uid="{63521423-5F83-437B-BD04-F5E74D740C7C}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C2961341-8768-49BE-B261-CD63DF71DB6F}" name="Nombre Columna" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{93107203-E266-463F-8770-B37DC06A10B0}" name="Descripcion" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BE439BA8-617E-4502-881D-E38269BC423E}" name="Tipo de Variable" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{B28915F3-B773-4133-AE2D-ADD527F2B0B1}" name="Influencia en el precio" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{9F27D55F-AEB4-49E9-A766-F60AC9A3286C}" name="Conclusion" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{0C73B8B0-D814-4009-8DC3-09BBC281C6CA}" name="Comentarios" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40414DC1-3685-452D-8309-840D9D183F55}" name="Tabla1" displayName="Tabla1" ref="A1:G81" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G81" xr:uid="{63521423-5F83-437B-BD04-F5E74D740C7C}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Numerica"/>
+        <filter val="Numerica-Año"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Discreta"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C2961341-8768-49BE-B261-CD63DF71DB6F}" name="Nombre Columna" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{93107203-E266-463F-8770-B37DC06A10B0}" name="Descripcion" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{BE439BA8-617E-4502-881D-E38269BC423E}" name="Tipo de Variable" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0D0B740C-12F8-4774-ACF8-9DA2481B6A6A}" name="Continua /_x000a_Discreta" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{B28915F3-B773-4133-AE2D-ADD527F2B0B1}" name="Influencia en el precio_x000a_0-5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{9F27D55F-AEB4-49E9-A766-F60AC9A3286C}" name="Conclusion" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0C73B8B0-D814-4009-8DC3-09BBC281C6CA}" name="Comentarios" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1078,1163 +1130,1478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351441CF-3681-40D6-986D-C14E7B926A9C}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="A2" sqref="A2:A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="50.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
       <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="4">
+        <v>3</v>
+      </c>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="4">
+        <v>4</v>
+      </c>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="4">
+        <v>4</v>
+      </c>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
       <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
       <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
       <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
       <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
       <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
       <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="4">
+        <v>3</v>
+      </c>
       <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="4">
+        <v>3</v>
+      </c>
       <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="4">
+        <v>3</v>
+      </c>
       <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
       <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="4">
+        <v>4</v>
+      </c>
       <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="4">
+        <v>4</v>
+      </c>
       <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3</v>
+      </c>
       <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="4">
+        <v>5</v>
+      </c>
       <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3</v>
+      </c>
       <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3</v>
+      </c>
       <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="4">
+        <v>4</v>
+      </c>
       <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="4">
+        <v>4</v>
+      </c>
       <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="4">
+        <v>5</v>
+      </c>
       <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="4">
+        <v>4</v>
+      </c>
       <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="4">
+        <v>5</v>
+      </c>
       <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="4">
+        <v>5</v>
+      </c>
       <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="4">
+        <v>4</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3</v>
+      </c>
       <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="4">
+        <v>2</v>
+      </c>
       <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="4">
+        <v>4</v>
+      </c>
       <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
       <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="4">
+        <v>4</v>
+      </c>
       <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="4">
+        <v>3</v>
+      </c>
       <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3</v>
+      </c>
       <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="4">
+        <v>3</v>
+      </c>
       <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="4">
+        <v>3</v>
+      </c>
       <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="4">
+        <v>3</v>
+      </c>
       <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E67" s="4">
+        <v>4</v>
+      </c>
       <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" s="4">
+        <v>3</v>
+      </c>
       <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E69" s="4">
+        <v>3</v>
+      </c>
       <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="4">
+        <v>3</v>
+      </c>
       <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3</v>
+      </c>
       <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="4">
+        <v>4</v>
+      </c>
       <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D73" s="10"/>
+      <c r="E73" s="4">
+        <v>4</v>
+      </c>
       <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="4">
+        <v>3</v>
+      </c>
       <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="4">
+        <v>4</v>
+      </c>
       <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="4">
+        <v>3</v>
+      </c>
       <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E77" s="4">
+        <v>3</v>
+      </c>
       <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E78" s="4">
+        <v>4</v>
+      </c>
       <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="E79" s="4">
+        <v>3</v>
+      </c>
       <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80" s="4">
+        <v>3</v>
+      </c>
       <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/descripcion_datos.xlsx
+++ b/descripcion_datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aeroengy\Desktop\kaggle-HouseRate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76C5589-9BCA-4FC0-B720-34CAAADEA39D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5042EA-A6EC-44B9-AFC7-EAB35196BC5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D318646-3679-4086-8D88-EA1F654DF70C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="174">
   <si>
     <t>Nombre Columna</t>
   </si>
@@ -544,14 +544,18 @@
     <t>Label</t>
   </si>
   <si>
+    <t>Discreta</t>
+  </si>
+  <si>
+    <t>Continua</t>
+  </si>
+  <si>
     <t>Continua /
-Discreta</t>
-  </si>
-  <si>
-    <t>Discreta</t>
-  </si>
-  <si>
-    <t>Continua</t>
+Discreta
+/ año</t>
+  </si>
+  <si>
+    <t>Continua-Año</t>
   </si>
 </sst>
 </file>
@@ -646,25 +650,6 @@
   <dxfs count="9">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -704,6 +689,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -811,12 +815,6 @@
     <filterColumn colId="2">
       <filters>
         <filter val="Numerica"/>
-        <filter val="Numerica-Año"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Discreta"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -824,10 +822,10 @@
     <tableColumn id="1" xr3:uid="{C2961341-8768-49BE-B261-CD63DF71DB6F}" name="Nombre Columna" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{93107203-E266-463F-8770-B37DC06A10B0}" name="Descripcion" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{BE439BA8-617E-4502-881D-E38269BC423E}" name="Tipo de Variable" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0D0B740C-12F8-4774-ACF8-9DA2481B6A6A}" name="Continua /_x000a_Discreta" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{B28915F3-B773-4133-AE2D-ADD527F2B0B1}" name="Influencia en el precio_x000a_0-5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{9F27D55F-AEB4-49E9-A766-F60AC9A3286C}" name="Conclusion" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{0C73B8B0-D814-4009-8DC3-09BBC281C6CA}" name="Comentarios" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0D0B740C-12F8-4774-ACF8-9DA2481B6A6A}" name="Continua /_x000a_Discreta_x000a_/ año" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B28915F3-B773-4133-AE2D-ADD527F2B0B1}" name="Influencia en el precio_x000a_0-5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{9F27D55F-AEB4-49E9-A766-F60AC9A3286C}" name="Conclusion" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{0C73B8B0-D814-4009-8DC3-09BBC281C6CA}" name="Comentarios" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1133,7 +1131,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A77"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1144,7 @@
     <col min="7" max="7" width="50.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1155,7 @@
         <v>81</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>167</v>
@@ -1180,7 +1178,7 @@
         <v>86</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" s="4">
         <v>4</v>
@@ -1205,7 +1203,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1214,7 @@
         <v>86</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -1224,7 +1222,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1235,7 +1233,7 @@
         <v>86</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="4">
         <v>5</v>
@@ -1458,7 +1456,7 @@
         <v>86</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="4">
         <v>4</v>
@@ -1477,7 +1475,7 @@
         <v>86</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="4">
         <v>4</v>
@@ -1485,7 +1483,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1496,7 +1494,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -1504,7 +1502,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
@@ -1515,7 +1513,7 @@
         <v>86</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E21" s="4">
         <v>4</v>
@@ -1744,7 +1742,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
@@ -1755,7 +1753,7 @@
         <v>86</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -1780,7 +1778,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -1791,7 +1789,7 @@
         <v>86</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
@@ -1799,7 +1797,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
@@ -1810,7 +1808,7 @@
         <v>86</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E38" s="4">
         <v>2</v>
@@ -1818,7 +1816,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -1829,7 +1827,7 @@
         <v>86</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
@@ -1905,7 +1903,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
@@ -1916,7 +1914,7 @@
         <v>86</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E44" s="4">
         <v>4</v>
@@ -1924,7 +1922,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
@@ -1935,7 +1933,7 @@
         <v>86</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E45" s="4">
         <v>4</v>
@@ -1943,7 +1941,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
@@ -1954,7 +1952,7 @@
         <v>86</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E46" s="4">
         <v>3</v>
@@ -1962,7 +1960,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
@@ -1973,7 +1971,7 @@
         <v>86</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E47" s="4">
         <v>5</v>
@@ -1992,7 +1990,7 @@
         <v>86</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E48" s="4">
         <v>3</v>
@@ -2011,7 +2009,7 @@
         <v>86</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E49" s="4">
         <v>3</v>
@@ -2030,7 +2028,7 @@
         <v>86</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E50" s="4">
         <v>4</v>
@@ -2049,7 +2047,7 @@
         <v>86</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E51" s="4">
         <v>4</v>
@@ -2068,7 +2066,7 @@
         <v>86</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E52" s="4">
         <v>5</v>
@@ -2087,7 +2085,7 @@
         <v>86</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E53" s="4">
         <v>4</v>
@@ -2123,7 +2121,7 @@
         <v>86</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E55" s="4">
         <v>5</v>
@@ -2161,7 +2159,7 @@
         <v>86</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E57" s="4">
         <v>3</v>
@@ -2203,7 +2201,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>60</v>
       </c>
@@ -2214,7 +2212,7 @@
         <v>86</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E60" s="4">
         <v>2</v>
@@ -2250,7 +2248,7 @@
         <v>86</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E62" s="4">
         <v>3</v>
@@ -2258,7 +2256,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>63</v>
       </c>
@@ -2269,7 +2267,7 @@
         <v>86</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E63" s="4">
         <v>3</v>
@@ -2328,7 +2326,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>67</v>
       </c>
@@ -2339,7 +2337,7 @@
         <v>86</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E67" s="4">
         <v>4</v>
@@ -2347,7 +2345,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>68</v>
       </c>
@@ -2358,7 +2356,7 @@
         <v>86</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E68" s="4">
         <v>3</v>
@@ -2366,7 +2364,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
@@ -2377,7 +2375,7 @@
         <v>86</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E69" s="4">
         <v>3</v>
@@ -2385,7 +2383,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>70</v>
       </c>
@@ -2396,7 +2394,7 @@
         <v>86</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E70" s="4">
         <v>3</v>
@@ -2404,7 +2402,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>71</v>
       </c>
@@ -2415,7 +2413,7 @@
         <v>86</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E71" s="4">
         <v>3</v>
@@ -2423,7 +2421,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>72</v>
       </c>
@@ -2434,7 +2432,7 @@
         <v>86</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E72" s="4">
         <v>4</v>
@@ -2493,7 +2491,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
@@ -2504,7 +2502,7 @@
         <v>86</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E76" s="4">
         <v>3</v>
@@ -2523,7 +2521,7 @@
         <v>86</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E77" s="4">
         <v>3</v>
@@ -2531,7 +2529,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>78</v>
       </c>
@@ -2542,7 +2540,7 @@
         <v>86</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E78" s="4">
         <v>4</v>
@@ -2584,7 +2582,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>1</v>
       </c>
@@ -2595,7 +2593,7 @@
         <v>86</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>169</v>
